--- a/www/IndicatorsPerCountry/Georgia_CopperProduction_TerritorialRef_1991_2012_CCode_268.xlsx
+++ b/www/IndicatorsPerCountry/Georgia_CopperProduction_TerritorialRef_1991_2012_CCode_268.xlsx
@@ -435,13 +435,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Georgia_CopperProduction_TerritorialRef_1991_2012_CCode_268.xlsx
+++ b/www/IndicatorsPerCountry/Georgia_CopperProduction_TerritorialRef_1991_2012_CCode_268.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="87">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,373 +39,205 @@
     <t>0</t>
   </si>
   <si>
-    <t/>
+    <t>0.00653879686137751</t>
+  </si>
+  <si>
+    <t>0.00948125544899738</t>
+  </si>
+  <si>
+    <t>0.0114428945074106</t>
+  </si>
+  <si>
+    <t>0.0215780296425458</t>
+  </si>
+  <si>
+    <t>0.039232781168265</t>
+  </si>
+  <si>
+    <t>0.0431560592850915</t>
+  </si>
+  <si>
+    <t>0.0595030514385353</t>
+  </si>
+  <si>
+    <t>0.0817349607672188</t>
+  </si>
+  <si>
+    <t>0.0980819529206626</t>
+  </si>
+  <si>
+    <t>0.0948125544899738</t>
+  </si>
+  <si>
+    <t>0.13077593722755</t>
+  </si>
+  <si>
+    <t>0.179816913687881</t>
+  </si>
+  <si>
+    <t>0.238666085440279</t>
+  </si>
+  <si>
+    <t>0.294245858761988</t>
+  </si>
+  <si>
+    <t>0.326939843068875</t>
+  </si>
+  <si>
+    <t>0.359633827375763</t>
+  </si>
+  <si>
+    <t>0.411944202266783</t>
+  </si>
+  <si>
+    <t>0.464254577157803</t>
+  </si>
+  <si>
+    <t>0.431560592850915</t>
+  </si>
+  <si>
+    <t>0.398866608544028</t>
+  </si>
+  <si>
+    <t>0.565605928509154</t>
+  </si>
+  <si>
+    <t>0.639167393199651</t>
+  </si>
+  <si>
+    <t>0.712728857890148</t>
+  </si>
+  <si>
+    <t>0.830427201394943</t>
+  </si>
+  <si>
+    <t>0.964472537053182</t>
+  </si>
+  <si>
+    <t>1.01351351351351</t>
+  </si>
+  <si>
+    <t>1.24237140366173</t>
+  </si>
+  <si>
+    <t>1.3077593722755</t>
+  </si>
+  <si>
+    <t>1.37314734088928</t>
+  </si>
+  <si>
+    <t>1.34045335658239</t>
+  </si>
+  <si>
+    <t>1.38949433304272</t>
+  </si>
+  <si>
+    <t>1.42218831734961</t>
+  </si>
+  <si>
+    <t>1.63469921534438</t>
+  </si>
+  <si>
+    <t>1.79816913687881</t>
+  </si>
+  <si>
+    <t>2.12510897994769</t>
+  </si>
+  <si>
+    <t>2.28857890148213</t>
+  </si>
+  <si>
+    <t>2.45204882301656</t>
+  </si>
+  <si>
+    <t>2.615518744551</t>
+  </si>
+  <si>
+    <t>2.69725370531822</t>
+  </si>
+  <si>
+    <t>2.77898866608544</t>
+  </si>
+  <si>
+    <t>2.86072362685266</t>
+  </si>
+  <si>
+    <t>3.0241935483871</t>
+  </si>
+  <si>
+    <t>3.23670444638187</t>
+  </si>
+  <si>
+    <t>3.36748038360942</t>
+  </si>
+  <si>
+    <t>3.59633827375763</t>
+  </si>
+  <si>
+    <t>3.9232781168265</t>
+  </si>
+  <si>
+    <t>3.69442022667829</t>
+  </si>
+  <si>
+    <t>2.82802964254577</t>
+  </si>
+  <si>
+    <t>2.89341761115955</t>
+  </si>
+  <si>
+    <t>2.94245858761988</t>
+  </si>
+  <si>
+    <t>3.10592850915432</t>
+  </si>
+  <si>
+    <t>3.30209241499564</t>
+  </si>
+  <si>
+    <t>3.33478639930253</t>
+  </si>
+  <si>
+    <t>2.74629468177855</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>5.1</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>297</t>
-  </si>
-  <si>
-    <t>292</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>322</t>
-  </si>
-  <si>
-    <t>326</t>
-  </si>
-  <si>
-    <t>313</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>415</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>442</t>
-  </si>
-  <si>
-    <t>461</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>556</t>
-  </si>
-  <si>
-    <t>575</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>655</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>824</t>
-  </si>
-  <si>
-    <t>821</t>
-  </si>
-  <si>
-    <t>734</t>
-  </si>
-  <si>
-    <t>731</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
-    <t>659</t>
-  </si>
-  <si>
-    <t>636</t>
-  </si>
-  <si>
-    <t>716</t>
-  </si>
-  <si>
-    <t>718</t>
-  </si>
-  <si>
-    <t>612</t>
-  </si>
-  <si>
-    <t>653</t>
-  </si>
-  <si>
-    <t>722</t>
-  </si>
-  <si>
-    <t>739</t>
-  </si>
-  <si>
-    <t>699</t>
-  </si>
-  <si>
-    <t>802</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>723</t>
-  </si>
-  <si>
-    <t>794</t>
-  </si>
-  <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>769</t>
-  </si>
-  <si>
-    <t>616.8</t>
-  </si>
-  <si>
-    <t>656</t>
-  </si>
-  <si>
-    <t>688</t>
-  </si>
-  <si>
-    <t>648</t>
-  </si>
-  <si>
-    <t>691</t>
-  </si>
-  <si>
-    <t>582</t>
-  </si>
-  <si>
-    <t>622</t>
-  </si>
-  <si>
-    <t>614</t>
-  </si>
-  <si>
-    <t>584</t>
-  </si>
-  <si>
-    <t>534</t>
-  </si>
-  <si>
-    <t>562.795</t>
-  </si>
-  <si>
-    <t>595.383</t>
-  </si>
-  <si>
-    <t>603.295</t>
-  </si>
-  <si>
-    <t>589.115</t>
-  </si>
-  <si>
-    <t>606.999</t>
-  </si>
-  <si>
-    <t>494.5</t>
-  </si>
-  <si>
-    <t>525</t>
-  </si>
-  <si>
-    <t>566.2</t>
-  </si>
-  <si>
-    <t>579</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>7.1</t>
   </si>
   <si>
     <t>Description</t>
@@ -520,7 +352,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1700.0</v>
+        <v>1728.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -537,10 +369,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1701.0</v>
+        <v>1729.0</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -554,10 +386,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1702.0</v>
+        <v>1730.0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -571,10 +403,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1703.0</v>
+        <v>1731.0</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -588,10 +420,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1704.0</v>
+        <v>1732.0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -605,10 +437,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1705.0</v>
+        <v>1733.0</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -622,10 +454,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1706.0</v>
+        <v>1734.0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +471,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1707.0</v>
+        <v>1735.0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -656,10 +488,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1708.0</v>
+        <v>1736.0</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -673,10 +505,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1709.0</v>
+        <v>1737.0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -690,10 +522,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1710.0</v>
+        <v>1738.0</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -707,10 +539,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1711.0</v>
+        <v>1739.0</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -724,10 +556,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1712.0</v>
+        <v>1740.0</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -741,10 +573,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1713.0</v>
+        <v>1741.0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -758,10 +590,10 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1714.0</v>
+        <v>1742.0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -775,10 +607,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1715.0</v>
+        <v>1743.0</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -792,10 +624,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1716.0</v>
+        <v>1744.0</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -809,10 +641,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1717.0</v>
+        <v>1745.0</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -826,10 +658,10 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1718.0</v>
+        <v>1746.0</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -843,10 +675,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1719.0</v>
+        <v>1747.0</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -860,10 +692,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1720.0</v>
+        <v>1748.0</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -877,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1721.0</v>
+        <v>1749.0</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -894,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1722.0</v>
+        <v>1750.0</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -911,10 +743,10 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>1723.0</v>
+        <v>1751.0</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -928,10 +760,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1724.0</v>
+        <v>1752.0</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -945,10 +777,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1725.0</v>
+        <v>1753.0</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -962,10 +794,10 @@
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1726.0</v>
+        <v>1754.0</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -979,10 +811,10 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1727.0</v>
+        <v>1755.0</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -996,7 +828,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>1728.0</v>
+        <v>1756.0</v>
       </c>
       <c r="E30" t="s">
         <v>7</v>
@@ -1013,7 +845,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1729.0</v>
+        <v>1757.0</v>
       </c>
       <c r="E31" t="s">
         <v>7</v>
@@ -1030,7 +862,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1730.0</v>
+        <v>1758.0</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -1047,7 +879,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>1731.0</v>
+        <v>1759.0</v>
       </c>
       <c r="E33" t="s">
         <v>7</v>
@@ -1064,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1732.0</v>
+        <v>1760.0</v>
       </c>
       <c r="E34" t="s">
         <v>7</v>
@@ -1081,7 +913,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1733.0</v>
+        <v>1761.0</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
@@ -1098,7 +930,7 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>1734.0</v>
+        <v>1762.0</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -1115,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>1735.0</v>
+        <v>1763.0</v>
       </c>
       <c r="E37" t="s">
         <v>7</v>
@@ -1132,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>1736.0</v>
+        <v>1764.0</v>
       </c>
       <c r="E38" t="s">
         <v>7</v>
@@ -1149,7 +981,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>1737.0</v>
+        <v>1765.0</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -1166,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>1738.0</v>
+        <v>1766.0</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -1183,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1739.0</v>
+        <v>1767.0</v>
       </c>
       <c r="E41" t="s">
         <v>7</v>
@@ -1200,7 +1032,7 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1740.0</v>
+        <v>1768.0</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
@@ -1217,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1741.0</v>
+        <v>1769.0</v>
       </c>
       <c r="E43" t="s">
         <v>7</v>
@@ -1234,7 +1066,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1742.0</v>
+        <v>1770.0</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1251,7 +1083,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1743.0</v>
+        <v>1771.0</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
@@ -1268,7 +1100,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1744.0</v>
+        <v>1772.0</v>
       </c>
       <c r="E46" t="s">
         <v>7</v>
@@ -1285,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1745.0</v>
+        <v>1773.0</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
@@ -1302,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1746.0</v>
+        <v>1774.0</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
@@ -1319,7 +1151,7 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1747.0</v>
+        <v>1775.0</v>
       </c>
       <c r="E49" t="s">
         <v>7</v>
@@ -1336,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1748.0</v>
+        <v>1776.0</v>
       </c>
       <c r="E50" t="s">
         <v>7</v>
@@ -1353,7 +1185,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1749.0</v>
+        <v>1777.0</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -1370,7 +1202,7 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>1750.0</v>
+        <v>1778.0</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -1387,7 +1219,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>1751.0</v>
+        <v>1779.0</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
@@ -1404,7 +1236,7 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>1752.0</v>
+        <v>1780.0</v>
       </c>
       <c r="E54" t="s">
         <v>7</v>
@@ -1421,7 +1253,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>1753.0</v>
+        <v>1781.0</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
@@ -1438,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>1754.0</v>
+        <v>1782.0</v>
       </c>
       <c r="E56" t="s">
         <v>7</v>
@@ -1455,7 +1287,7 @@
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>1755.0</v>
+        <v>1783.0</v>
       </c>
       <c r="E57" t="s">
         <v>7</v>
@@ -1472,7 +1304,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>1756.0</v>
+        <v>1784.0</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
@@ -1489,7 +1321,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>1757.0</v>
+        <v>1785.0</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
@@ -1506,7 +1338,7 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>1758.0</v>
+        <v>1786.0</v>
       </c>
       <c r="E60" t="s">
         <v>7</v>
@@ -1523,7 +1355,7 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>1759.0</v>
+        <v>1787.0</v>
       </c>
       <c r="E61" t="s">
         <v>7</v>
@@ -1540,7 +1372,7 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>1760.0</v>
+        <v>1788.0</v>
       </c>
       <c r="E62" t="s">
         <v>7</v>
@@ -1557,7 +1389,7 @@
         <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>1761.0</v>
+        <v>1789.0</v>
       </c>
       <c r="E63" t="s">
         <v>7</v>
@@ -1574,7 +1406,7 @@
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>1762.0</v>
+        <v>1790.0</v>
       </c>
       <c r="E64" t="s">
         <v>7</v>
@@ -1591,7 +1423,7 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>1763.0</v>
+        <v>1791.0</v>
       </c>
       <c r="E65" t="s">
         <v>7</v>
@@ -1608,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>1764.0</v>
+        <v>1792.0</v>
       </c>
       <c r="E66" t="s">
         <v>7</v>
@@ -1625,7 +1457,7 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>1765.0</v>
+        <v>1793.0</v>
       </c>
       <c r="E67" t="s">
         <v>7</v>
@@ -1642,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>1766.0</v>
+        <v>1794.0</v>
       </c>
       <c r="E68" t="s">
         <v>7</v>
@@ -1659,7 +1491,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>1767.0</v>
+        <v>1795.0</v>
       </c>
       <c r="E69" t="s">
         <v>7</v>
@@ -1676,7 +1508,7 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1768.0</v>
+        <v>1796.0</v>
       </c>
       <c r="E70" t="s">
         <v>7</v>
@@ -1693,7 +1525,7 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>1769.0</v>
+        <v>1797.0</v>
       </c>
       <c r="E71" t="s">
         <v>7</v>
@@ -1710,7 +1542,7 @@
         <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>1770.0</v>
+        <v>1798.0</v>
       </c>
       <c r="E72" t="s">
         <v>7</v>
@@ -1727,7 +1559,7 @@
         <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>1771.0</v>
+        <v>1799.0</v>
       </c>
       <c r="E73" t="s">
         <v>7</v>
@@ -1744,7 +1576,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>1772.0</v>
+        <v>1800.0</v>
       </c>
       <c r="E74" t="s">
         <v>7</v>
@@ -1761,7 +1593,7 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>1773.0</v>
+        <v>1801.0</v>
       </c>
       <c r="E75" t="s">
         <v>7</v>
@@ -1778,7 +1610,7 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>1774.0</v>
+        <v>1802.0</v>
       </c>
       <c r="E76" t="s">
         <v>7</v>
@@ -1795,7 +1627,7 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>1775.0</v>
+        <v>1803.0</v>
       </c>
       <c r="E77" t="s">
         <v>7</v>
@@ -1812,7 +1644,7 @@
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>1776.0</v>
+        <v>1804.0</v>
       </c>
       <c r="E78" t="s">
         <v>7</v>
@@ -1829,7 +1661,7 @@
         <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>1777.0</v>
+        <v>1805.0</v>
       </c>
       <c r="E79" t="s">
         <v>7</v>
@@ -1846,7 +1678,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>1778.0</v>
+        <v>1806.0</v>
       </c>
       <c r="E80" t="s">
         <v>7</v>
@@ -1863,7 +1695,7 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>1779.0</v>
+        <v>1807.0</v>
       </c>
       <c r="E81" t="s">
         <v>7</v>
@@ -1880,7 +1712,7 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>1780.0</v>
+        <v>1808.0</v>
       </c>
       <c r="E82" t="s">
         <v>7</v>
@@ -1897,7 +1729,7 @@
         <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>1781.0</v>
+        <v>1809.0</v>
       </c>
       <c r="E83" t="s">
         <v>7</v>
@@ -1914,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>1782.0</v>
+        <v>1810.0</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
@@ -1931,7 +1763,7 @@
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>1783.0</v>
+        <v>1811.0</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
@@ -1948,7 +1780,7 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>1784.0</v>
+        <v>1812.0</v>
       </c>
       <c r="E86" t="s">
         <v>7</v>
@@ -1965,7 +1797,7 @@
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>1785.0</v>
+        <v>1813.0</v>
       </c>
       <c r="E87" t="s">
         <v>7</v>
@@ -1982,7 +1814,7 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>1786.0</v>
+        <v>1814.0</v>
       </c>
       <c r="E88" t="s">
         <v>7</v>
@@ -1999,7 +1831,7 @@
         <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>1787.0</v>
+        <v>1815.0</v>
       </c>
       <c r="E89" t="s">
         <v>7</v>
@@ -2016,7 +1848,7 @@
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>1788.0</v>
+        <v>1816.0</v>
       </c>
       <c r="E90" t="s">
         <v>7</v>
@@ -2033,7 +1865,7 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>1789.0</v>
+        <v>1817.0</v>
       </c>
       <c r="E91" t="s">
         <v>7</v>
@@ -2050,7 +1882,7 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>1790.0</v>
+        <v>1818.0</v>
       </c>
       <c r="E92" t="s">
         <v>7</v>
@@ -2067,7 +1899,7 @@
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>1791.0</v>
+        <v>1819.0</v>
       </c>
       <c r="E93" t="s">
         <v>7</v>
@@ -2084,7 +1916,7 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>1792.0</v>
+        <v>1820.0</v>
       </c>
       <c r="E94" t="s">
         <v>7</v>
@@ -2101,7 +1933,7 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>1793.0</v>
+        <v>1821.0</v>
       </c>
       <c r="E95" t="s">
         <v>7</v>
@@ -2118,7 +1950,7 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>1794.0</v>
+        <v>1822.0</v>
       </c>
       <c r="E96" t="s">
         <v>7</v>
@@ -2135,7 +1967,7 @@
         <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>1795.0</v>
+        <v>1823.0</v>
       </c>
       <c r="E97" t="s">
         <v>7</v>
@@ -2152,7 +1984,7 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>1796.0</v>
+        <v>1824.0</v>
       </c>
       <c r="E98" t="s">
         <v>7</v>
@@ -2169,7 +2001,7 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>1797.0</v>
+        <v>1825.0</v>
       </c>
       <c r="E99" t="s">
         <v>7</v>
@@ -2186,7 +2018,7 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>1798.0</v>
+        <v>1826.0</v>
       </c>
       <c r="E100" t="s">
         <v>7</v>
@@ -2203,7 +2035,7 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>1799.0</v>
+        <v>1827.0</v>
       </c>
       <c r="E101" t="s">
         <v>7</v>
@@ -2220,7 +2052,7 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>1800.0</v>
+        <v>1828.0</v>
       </c>
       <c r="E102" t="s">
         <v>7</v>
@@ -2237,7 +2069,7 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>1801.0</v>
+        <v>1829.0</v>
       </c>
       <c r="E103" t="s">
         <v>7</v>
@@ -2254,7 +2086,7 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>1802.0</v>
+        <v>1830.0</v>
       </c>
       <c r="E104" t="s">
         <v>7</v>
@@ -2271,7 +2103,7 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>1803.0</v>
+        <v>1831.0</v>
       </c>
       <c r="E105" t="s">
         <v>7</v>
@@ -2288,7 +2120,7 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>1804.0</v>
+        <v>1832.0</v>
       </c>
       <c r="E106" t="s">
         <v>7</v>
@@ -2305,7 +2137,7 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>1805.0</v>
+        <v>1833.0</v>
       </c>
       <c r="E107" t="s">
         <v>7</v>
@@ -2322,7 +2154,7 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>1806.0</v>
+        <v>1834.0</v>
       </c>
       <c r="E108" t="s">
         <v>7</v>
@@ -2339,7 +2171,7 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>1807.0</v>
+        <v>1835.0</v>
       </c>
       <c r="E109" t="s">
         <v>7</v>
@@ -2356,7 +2188,7 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>1808.0</v>
+        <v>1836.0</v>
       </c>
       <c r="E110" t="s">
         <v>7</v>
@@ -2373,7 +2205,7 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>1809.0</v>
+        <v>1837.0</v>
       </c>
       <c r="E111" t="s">
         <v>7</v>
@@ -2390,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>1810.0</v>
+        <v>1838.0</v>
       </c>
       <c r="E112" t="s">
         <v>7</v>
@@ -2407,7 +2239,7 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>1811.0</v>
+        <v>1839.0</v>
       </c>
       <c r="E113" t="s">
         <v>7</v>
@@ -2424,7 +2256,7 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>1812.0</v>
+        <v>1840.0</v>
       </c>
       <c r="E114" t="s">
         <v>7</v>
@@ -2441,7 +2273,7 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>1813.0</v>
+        <v>1841.0</v>
       </c>
       <c r="E115" t="s">
         <v>7</v>
@@ -2458,7 +2290,7 @@
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>1814.0</v>
+        <v>1842.0</v>
       </c>
       <c r="E116" t="s">
         <v>7</v>
@@ -2475,7 +2307,7 @@
         <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>1815.0</v>
+        <v>1843.0</v>
       </c>
       <c r="E117" t="s">
         <v>7</v>
@@ -2492,7 +2324,7 @@
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>1816.0</v>
+        <v>1844.0</v>
       </c>
       <c r="E118" t="s">
         <v>7</v>
@@ -2509,7 +2341,7 @@
         <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>1817.0</v>
+        <v>1845.0</v>
       </c>
       <c r="E119" t="s">
         <v>7</v>
@@ -2526,7 +2358,7 @@
         <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>1818.0</v>
+        <v>1846.0</v>
       </c>
       <c r="E120" t="s">
         <v>7</v>
@@ -2543,7 +2375,7 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>1819.0</v>
+        <v>1847.0</v>
       </c>
       <c r="E121" t="s">
         <v>7</v>
@@ -2560,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>1820.0</v>
+        <v>1848.0</v>
       </c>
       <c r="E122" t="s">
         <v>7</v>
@@ -2577,7 +2409,7 @@
         <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>1821.0</v>
+        <v>1849.0</v>
       </c>
       <c r="E123" t="s">
         <v>7</v>
@@ -2594,7 +2426,7 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>1822.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E124" t="s">
         <v>7</v>
@@ -2611,7 +2443,7 @@
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>1823.0</v>
+        <v>1851.0</v>
       </c>
       <c r="E125" t="s">
         <v>7</v>
@@ -2628,7 +2460,7 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>1824.0</v>
+        <v>1852.0</v>
       </c>
       <c r="E126" t="s">
         <v>7</v>
@@ -2645,7 +2477,7 @@
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>1825.0</v>
+        <v>1853.0</v>
       </c>
       <c r="E127" t="s">
         <v>7</v>
@@ -2662,7 +2494,7 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>1826.0</v>
+        <v>1854.0</v>
       </c>
       <c r="E128" t="s">
         <v>7</v>
@@ -2679,7 +2511,7 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>1827.0</v>
+        <v>1855.0</v>
       </c>
       <c r="E129" t="s">
         <v>7</v>
@@ -2696,7 +2528,7 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>1828.0</v>
+        <v>1856.0</v>
       </c>
       <c r="E130" t="s">
         <v>7</v>
@@ -2713,7 +2545,7 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>1829.0</v>
+        <v>1857.0</v>
       </c>
       <c r="E131" t="s">
         <v>7</v>
@@ -2730,7 +2562,7 @@
         <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>1830.0</v>
+        <v>1858.0</v>
       </c>
       <c r="E132" t="s">
         <v>7</v>
@@ -2747,7 +2579,7 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>1831.0</v>
+        <v>1859.0</v>
       </c>
       <c r="E133" t="s">
         <v>7</v>
@@ -2764,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>1832.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E134" t="s">
         <v>7</v>
@@ -2781,7 +2613,7 @@
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>1833.0</v>
+        <v>1861.0</v>
       </c>
       <c r="E135" t="s">
         <v>7</v>
@@ -2798,7 +2630,7 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>1834.0</v>
+        <v>1862.0</v>
       </c>
       <c r="E136" t="s">
         <v>7</v>
@@ -2815,7 +2647,7 @@
         <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>1835.0</v>
+        <v>1863.0</v>
       </c>
       <c r="E137" t="s">
         <v>7</v>
@@ -2832,7 +2664,7 @@
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>1836.0</v>
+        <v>1864.0</v>
       </c>
       <c r="E138" t="s">
         <v>7</v>
@@ -2849,7 +2681,7 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>1837.0</v>
+        <v>1865.0</v>
       </c>
       <c r="E139" t="s">
         <v>7</v>
@@ -2866,7 +2698,7 @@
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>1838.0</v>
+        <v>1866.0</v>
       </c>
       <c r="E140" t="s">
         <v>7</v>
@@ -2883,7 +2715,7 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>1839.0</v>
+        <v>1867.0</v>
       </c>
       <c r="E141" t="s">
         <v>7</v>
@@ -2900,7 +2732,7 @@
         <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>1840.0</v>
+        <v>1868.0</v>
       </c>
       <c r="E142" t="s">
         <v>7</v>
@@ -2917,7 +2749,7 @@
         <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>1841.0</v>
+        <v>1869.0</v>
       </c>
       <c r="E143" t="s">
         <v>7</v>
@@ -2934,7 +2766,7 @@
         <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>1842.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E144" t="s">
         <v>7</v>
@@ -2951,7 +2783,7 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>1843.0</v>
+        <v>1871.0</v>
       </c>
       <c r="E145" t="s">
         <v>7</v>
@@ -2968,7 +2800,7 @@
         <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>1844.0</v>
+        <v>1872.0</v>
       </c>
       <c r="E146" t="s">
         <v>7</v>
@@ -2985,7 +2817,7 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>1845.0</v>
+        <v>1873.0</v>
       </c>
       <c r="E147" t="s">
         <v>7</v>
@@ -3002,7 +2834,7 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>1846.0</v>
+        <v>1874.0</v>
       </c>
       <c r="E148" t="s">
         <v>7</v>
@@ -3019,7 +2851,7 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>1847.0</v>
+        <v>1875.0</v>
       </c>
       <c r="E149" t="s">
         <v>7</v>
@@ -3036,7 +2868,7 @@
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>1848.0</v>
+        <v>1876.0</v>
       </c>
       <c r="E150" t="s">
         <v>7</v>
@@ -3053,7 +2885,7 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>1849.0</v>
+        <v>1877.0</v>
       </c>
       <c r="E151" t="s">
         <v>7</v>
@@ -3070,7 +2902,7 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>1850.0</v>
+        <v>1878.0</v>
       </c>
       <c r="E152" t="s">
         <v>7</v>
@@ -3087,7 +2919,7 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>1851.0</v>
+        <v>1879.0</v>
       </c>
       <c r="E153" t="s">
         <v>7</v>
@@ -3104,7 +2936,7 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>1852.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E154" t="s">
         <v>7</v>
@@ -3121,7 +2953,7 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>1853.0</v>
+        <v>1881.0</v>
       </c>
       <c r="E155" t="s">
         <v>7</v>
@@ -3138,7 +2970,7 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>1854.0</v>
+        <v>1882.0</v>
       </c>
       <c r="E156" t="s">
         <v>7</v>
@@ -3155,7 +2987,7 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>1855.0</v>
+        <v>1883.0</v>
       </c>
       <c r="E157" t="s">
         <v>7</v>
@@ -3172,7 +3004,7 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>1856.0</v>
+        <v>1884.0</v>
       </c>
       <c r="E158" t="s">
         <v>7</v>
@@ -3189,7 +3021,7 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>1857.0</v>
+        <v>1885.0</v>
       </c>
       <c r="E159" t="s">
         <v>7</v>
@@ -3206,7 +3038,7 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>1858.0</v>
+        <v>1886.0</v>
       </c>
       <c r="E160" t="s">
         <v>7</v>
@@ -3223,7 +3055,7 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>1859.0</v>
+        <v>1887.0</v>
       </c>
       <c r="E161" t="s">
         <v>7</v>
@@ -3240,7 +3072,7 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>1860.0</v>
+        <v>1888.0</v>
       </c>
       <c r="E162" t="s">
         <v>7</v>
@@ -3257,7 +3089,7 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>1861.0</v>
+        <v>1889.0</v>
       </c>
       <c r="E163" t="s">
         <v>7</v>
@@ -3274,7 +3106,7 @@
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>1862.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E164" t="s">
         <v>7</v>
@@ -3291,7 +3123,7 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>1863.0</v>
+        <v>1891.0</v>
       </c>
       <c r="E165" t="s">
         <v>7</v>
@@ -3308,7 +3140,7 @@
         <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>1864.0</v>
+        <v>1892.0</v>
       </c>
       <c r="E166" t="s">
         <v>7</v>
@@ -3325,7 +3157,7 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>1865.0</v>
+        <v>1893.0</v>
       </c>
       <c r="E167" t="s">
         <v>7</v>
@@ -3342,7 +3174,7 @@
         <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>1866.0</v>
+        <v>1894.0</v>
       </c>
       <c r="E168" t="s">
         <v>7</v>
@@ -3359,7 +3191,7 @@
         <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>1867.0</v>
+        <v>1895.0</v>
       </c>
       <c r="E169" t="s">
         <v>7</v>
@@ -3376,7 +3208,7 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>1868.0</v>
+        <v>1896.0</v>
       </c>
       <c r="E170" t="s">
         <v>7</v>
@@ -3393,7 +3225,7 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>1869.0</v>
+        <v>1897.0</v>
       </c>
       <c r="E171" t="s">
         <v>7</v>
@@ -3410,10 +3242,10 @@
         <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>1870.0</v>
+        <v>1898.0</v>
       </c>
       <c r="E172" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173">
@@ -3427,10 +3259,10 @@
         <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>1871.0</v>
+        <v>1899.0</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174">
@@ -3444,10 +3276,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>1872.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
@@ -3461,10 +3293,10 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>1873.0</v>
+        <v>1901.0</v>
       </c>
       <c r="E175" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
@@ -3478,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>1874.0</v>
+        <v>1902.0</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
@@ -3495,10 +3327,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>1875.0</v>
+        <v>1903.0</v>
       </c>
       <c r="E177" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
@@ -3512,10 +3344,10 @@
         <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>1876.0</v>
+        <v>1904.0</v>
       </c>
       <c r="E178" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
@@ -3529,10 +3361,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>1877.0</v>
+        <v>1905.0</v>
       </c>
       <c r="E179" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
@@ -3546,10 +3378,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>1878.0</v>
+        <v>1906.0</v>
       </c>
       <c r="E180" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181">
@@ -3563,10 +3395,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>1879.0</v>
+        <v>1907.0</v>
       </c>
       <c r="E181" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182">
@@ -3580,10 +3412,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>1880.0</v>
+        <v>1908.0</v>
       </c>
       <c r="E182" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
@@ -3597,10 +3429,10 @@
         <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>1881.0</v>
+        <v>1909.0</v>
       </c>
       <c r="E183" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184">
@@ -3614,10 +3446,10 @@
         <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>1882.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E184" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
@@ -3631,10 +3463,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>1883.0</v>
+        <v>1911.0</v>
       </c>
       <c r="E185" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
@@ -3648,10 +3480,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>1884.0</v>
+        <v>1912.0</v>
       </c>
       <c r="E186" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187">
@@ -3665,10 +3497,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>1885.0</v>
+        <v>1913.0</v>
       </c>
       <c r="E187" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188">
@@ -3682,10 +3514,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>1886.0</v>
+        <v>1914.0</v>
       </c>
       <c r="E188" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189">
@@ -3699,10 +3531,10 @@
         <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>1887.0</v>
+        <v>1915.0</v>
       </c>
       <c r="E189" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
@@ -3716,10 +3548,10 @@
         <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>1888.0</v>
+        <v>1916.0</v>
       </c>
       <c r="E190" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
@@ -3733,10 +3565,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>1889.0</v>
+        <v>1917.0</v>
       </c>
       <c r="E191" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192">
@@ -3750,10 +3582,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>1890.0</v>
+        <v>1918.0</v>
       </c>
       <c r="E192" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193">
@@ -3767,10 +3599,10 @@
         <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>1891.0</v>
+        <v>1919.0</v>
       </c>
       <c r="E193" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
@@ -3784,10 +3616,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>1892.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E194" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195">
@@ -3801,10 +3633,10 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>1893.0</v>
+        <v>1921.0</v>
       </c>
       <c r="E195" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196">
@@ -3818,10 +3650,10 @@
         <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>1894.0</v>
+        <v>1922.0</v>
       </c>
       <c r="E196" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197">
@@ -3835,10 +3667,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>1895.0</v>
+        <v>1923.0</v>
       </c>
       <c r="E197" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198">
@@ -3852,10 +3684,10 @@
         <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>1896.0</v>
+        <v>1924.0</v>
       </c>
       <c r="E198" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199">
@@ -3869,10 +3701,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>1897.0</v>
+        <v>1925.0</v>
       </c>
       <c r="E199" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200">
@@ -3886,10 +3718,10 @@
         <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>1898.0</v>
+        <v>1926.0</v>
       </c>
       <c r="E200" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201">
@@ -3903,10 +3735,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>1899.0</v>
+        <v>1927.0</v>
       </c>
       <c r="E201" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202">
@@ -3920,10 +3752,10 @@
         <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>1900.0</v>
+        <v>1928.0</v>
       </c>
       <c r="E202" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203">
@@ -3937,10 +3769,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>1901.0</v>
+        <v>1929.0</v>
       </c>
       <c r="E203" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204">
@@ -3954,10 +3786,10 @@
         <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>1902.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E204" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="205">
@@ -3971,10 +3803,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>1903.0</v>
+        <v>1931.0</v>
       </c>
       <c r="E205" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206">
@@ -3988,10 +3820,10 @@
         <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>1904.0</v>
+        <v>1932.0</v>
       </c>
       <c r="E206" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207">
@@ -4005,10 +3837,10 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>1905.0</v>
+        <v>1933.0</v>
       </c>
       <c r="E207" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208">
@@ -4022,10 +3854,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>1906.0</v>
+        <v>1934.0</v>
       </c>
       <c r="E208" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209">
@@ -4039,10 +3871,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>1907.0</v>
+        <v>1935.0</v>
       </c>
       <c r="E209" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="210">
@@ -4056,10 +3888,10 @@
         <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>1908.0</v>
+        <v>1936.0</v>
       </c>
       <c r="E210" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211">
@@ -4073,10 +3905,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>1909.0</v>
+        <v>1937.0</v>
       </c>
       <c r="E211" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212">
@@ -4090,10 +3922,10 @@
         <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>1910.0</v>
+        <v>1938.0</v>
       </c>
       <c r="E212" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="213">
@@ -4107,10 +3939,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>1911.0</v>
+        <v>1939.0</v>
       </c>
       <c r="E213" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="214">
@@ -4124,10 +3956,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>1912.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E214" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215">
@@ -4141,10 +3973,10 @@
         <v>6</v>
       </c>
       <c r="D215" t="n">
-        <v>1913.0</v>
+        <v>1941.0</v>
       </c>
       <c r="E215" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216">
@@ -4158,10 +3990,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>1914.0</v>
+        <v>1942.0</v>
       </c>
       <c r="E216" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="217">
@@ -4175,10 +4007,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>1915.0</v>
+        <v>1943.0</v>
       </c>
       <c r="E217" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="218">
@@ -4192,10 +4024,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>1916.0</v>
+        <v>1944.0</v>
       </c>
       <c r="E218" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="219">
@@ -4209,10 +4041,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>1917.0</v>
+        <v>1945.0</v>
       </c>
       <c r="E219" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="220">
@@ -4226,10 +4058,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>1918.0</v>
+        <v>1946.0</v>
       </c>
       <c r="E220" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="221">
@@ -4243,10 +4075,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>1919.0</v>
+        <v>1947.0</v>
       </c>
       <c r="E221" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="222">
@@ -4260,10 +4092,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>1920.0</v>
+        <v>1948.0</v>
       </c>
       <c r="E222" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="223">
@@ -4277,10 +4109,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>1921.0</v>
+        <v>1949.0</v>
       </c>
       <c r="E223" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="224">
@@ -4294,10 +4126,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>1922.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E224" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225">
@@ -4311,10 +4143,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>1923.0</v>
+        <v>1951.0</v>
       </c>
       <c r="E225" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="226">
@@ -4328,10 +4160,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>1924.0</v>
+        <v>1952.0</v>
       </c>
       <c r="E226" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="227">
@@ -4345,10 +4177,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>1925.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E227" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="228">
@@ -4362,10 +4194,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>1926.0</v>
+        <v>1954.0</v>
       </c>
       <c r="E228" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="229">
@@ -4379,10 +4211,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>1927.0</v>
+        <v>1955.0</v>
       </c>
       <c r="E229" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="230">
@@ -4396,10 +4228,10 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>1928.0</v>
+        <v>1956.0</v>
       </c>
       <c r="E230" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="231">
@@ -4413,10 +4245,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>1929.0</v>
+        <v>1957.0</v>
       </c>
       <c r="E231" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="232">
@@ -4430,10 +4262,10 @@
         <v>6</v>
       </c>
       <c r="D232" t="n">
-        <v>1930.0</v>
+        <v>1958.0</v>
       </c>
       <c r="E232" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="233">
@@ -4447,10 +4279,10 @@
         <v>6</v>
       </c>
       <c r="D233" t="n">
-        <v>1931.0</v>
+        <v>1959.0</v>
       </c>
       <c r="E233" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="234">
@@ -4464,10 +4296,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>1932.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E234" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="235">
@@ -4481,10 +4313,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>1933.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E235" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="236">
@@ -4498,10 +4330,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>1934.0</v>
+        <v>1962.0</v>
       </c>
       <c r="E236" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="237">
@@ -4515,10 +4347,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>1935.0</v>
+        <v>1963.0</v>
       </c>
       <c r="E237" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="238">
@@ -4532,10 +4364,10 @@
         <v>6</v>
       </c>
       <c r="D238" t="n">
-        <v>1936.0</v>
+        <v>1964.0</v>
       </c>
       <c r="E238" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="239">
@@ -4549,10 +4381,10 @@
         <v>6</v>
       </c>
       <c r="D239" t="n">
-        <v>1937.0</v>
+        <v>1965.0</v>
       </c>
       <c r="E239" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="240">
@@ -4566,10 +4398,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>1938.0</v>
+        <v>1966.0</v>
       </c>
       <c r="E240" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="241">
@@ -4583,10 +4415,10 @@
         <v>6</v>
       </c>
       <c r="D241" t="n">
-        <v>1939.0</v>
+        <v>1967.0</v>
       </c>
       <c r="E241" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="242">
@@ -4600,10 +4432,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>1940.0</v>
+        <v>1968.0</v>
       </c>
       <c r="E242" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="243">
@@ -4617,10 +4449,10 @@
         <v>6</v>
       </c>
       <c r="D243" t="n">
-        <v>1941.0</v>
+        <v>1969.0</v>
       </c>
       <c r="E243" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="244">
@@ -4634,10 +4466,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>1942.0</v>
+        <v>1970.0</v>
       </c>
       <c r="E244" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="245">
@@ -4651,10 +4483,10 @@
         <v>6</v>
       </c>
       <c r="D245" t="n">
-        <v>1943.0</v>
+        <v>1971.0</v>
       </c>
       <c r="E245" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="246">
@@ -4668,10 +4500,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>1944.0</v>
+        <v>1972.0</v>
       </c>
       <c r="E246" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="247">
@@ -4685,10 +4517,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>1945.0</v>
+        <v>1973.0</v>
       </c>
       <c r="E247" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="248">
@@ -4702,10 +4534,10 @@
         <v>6</v>
       </c>
       <c r="D248" t="n">
-        <v>1946.0</v>
+        <v>1974.0</v>
       </c>
       <c r="E248" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="249">
@@ -4719,10 +4551,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>1947.0</v>
+        <v>1975.0</v>
       </c>
       <c r="E249" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="250">
@@ -4736,10 +4568,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>1948.0</v>
+        <v>1976.0</v>
       </c>
       <c r="E250" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="251">
@@ -4753,10 +4585,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>1949.0</v>
+        <v>1977.0</v>
       </c>
       <c r="E251" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="252">
@@ -4770,10 +4602,10 @@
         <v>6</v>
       </c>
       <c r="D252" t="n">
-        <v>1950.0</v>
+        <v>1978.0</v>
       </c>
       <c r="E252" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="253">
@@ -4787,10 +4619,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>1951.0</v>
+        <v>1979.0</v>
       </c>
       <c r="E253" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="254">
@@ -4804,10 +4636,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>1952.0</v>
+        <v>1980.0</v>
       </c>
       <c r="E254" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="255">
@@ -4821,10 +4653,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>1953.0</v>
+        <v>1981.0</v>
       </c>
       <c r="E255" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="256">
@@ -4838,10 +4670,10 @@
         <v>6</v>
       </c>
       <c r="D256" t="n">
-        <v>1954.0</v>
+        <v>1982.0</v>
       </c>
       <c r="E256" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="257">
@@ -4855,10 +4687,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>1955.0</v>
+        <v>1983.0</v>
       </c>
       <c r="E257" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="258">
@@ -4872,10 +4704,10 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>1956.0</v>
+        <v>1984.0</v>
       </c>
       <c r="E258" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="259">
@@ -4889,10 +4721,10 @@
         <v>6</v>
       </c>
       <c r="D259" t="n">
-        <v>1957.0</v>
+        <v>1985.0</v>
       </c>
       <c r="E259" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="260">
@@ -4906,10 +4738,10 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>1958.0</v>
+        <v>1986.0</v>
       </c>
       <c r="E260" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="261">
@@ -4923,10 +4755,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>1959.0</v>
+        <v>1987.0</v>
       </c>
       <c r="E261" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="262">
@@ -4940,10 +4772,10 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>1960.0</v>
+        <v>1988.0</v>
       </c>
       <c r="E262" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="263">
@@ -4957,10 +4789,10 @@
         <v>6</v>
       </c>
       <c r="D263" t="n">
-        <v>1961.0</v>
+        <v>1989.0</v>
       </c>
       <c r="E263" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="264">
@@ -4974,10 +4806,10 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>1962.0</v>
+        <v>1990.0</v>
       </c>
       <c r="E264" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="265">
@@ -4991,10 +4823,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>1963.0</v>
+        <v>1991.0</v>
       </c>
       <c r="E265" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="266">
@@ -5008,10 +4840,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>1964.0</v>
+        <v>1992.0</v>
       </c>
       <c r="E266" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="267">
@@ -5025,10 +4857,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>1965.0</v>
+        <v>1993.0</v>
       </c>
       <c r="E267" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="268">
@@ -5042,10 +4874,10 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>1966.0</v>
+        <v>1994.0</v>
       </c>
       <c r="E268" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="269">
@@ -5059,10 +4891,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>1967.0</v>
+        <v>1995.0</v>
       </c>
       <c r="E269" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="270">
@@ -5076,10 +4908,10 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>1968.0</v>
+        <v>1996.0</v>
       </c>
       <c r="E270" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="271">
@@ -5093,10 +4925,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>1969.0</v>
+        <v>1997.0</v>
       </c>
       <c r="E271" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="272">
@@ -5110,10 +4942,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>1970.0</v>
+        <v>1998.0</v>
       </c>
       <c r="E272" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="273">
@@ -5127,10 +4959,10 @@
         <v>6</v>
       </c>
       <c r="D273" t="n">
-        <v>1971.0</v>
+        <v>1999.0</v>
       </c>
       <c r="E273" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="274">
@@ -5144,10 +4976,10 @@
         <v>6</v>
       </c>
       <c r="D274" t="n">
-        <v>1972.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E274" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="275">
@@ -5161,10 +4993,10 @@
         <v>6</v>
       </c>
       <c r="D275" t="n">
-        <v>1973.0</v>
+        <v>2001.0</v>
       </c>
       <c r="E275" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="276">
@@ -5178,10 +5010,10 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>1974.0</v>
+        <v>2002.0</v>
       </c>
       <c r="E276" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="277">
@@ -5195,10 +5027,10 @@
         <v>6</v>
       </c>
       <c r="D277" t="n">
-        <v>1975.0</v>
+        <v>2003.0</v>
       </c>
       <c r="E277" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="278">
@@ -5212,10 +5044,10 @@
         <v>6</v>
       </c>
       <c r="D278" t="n">
-        <v>1976.0</v>
+        <v>2004.0</v>
       </c>
       <c r="E278" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="279">
@@ -5229,10 +5061,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>1977.0</v>
+        <v>2005.0</v>
       </c>
       <c r="E279" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="280">
@@ -5246,10 +5078,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>1978.0</v>
+        <v>2006.0</v>
       </c>
       <c r="E280" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="281">
@@ -5263,10 +5095,10 @@
         <v>6</v>
       </c>
       <c r="D281" t="n">
-        <v>1979.0</v>
+        <v>2007.0</v>
       </c>
       <c r="E281" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="282">
@@ -5280,10 +5112,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>1980.0</v>
+        <v>2008.0</v>
       </c>
       <c r="E282" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="283">
@@ -5297,10 +5129,10 @@
         <v>6</v>
       </c>
       <c r="D283" t="n">
-        <v>1981.0</v>
+        <v>2009.0</v>
       </c>
       <c r="E283" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="284">
@@ -5314,10 +5146,10 @@
         <v>6</v>
       </c>
       <c r="D284" t="n">
-        <v>1982.0</v>
+        <v>2010.0</v>
       </c>
       <c r="E284" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="285">
@@ -5331,10 +5163,10 @@
         <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>1983.0</v>
+        <v>2011.0</v>
       </c>
       <c r="E285" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
     </row>
     <row r="286">
@@ -5348,486 +5180,10 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>1984.0</v>
+        <v>2012.0</v>
       </c>
       <c r="E286" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B287" t="s">
-        <v>5</v>
-      </c>
-      <c r="C287" t="s">
-        <v>6</v>
-      </c>
-      <c r="D287" t="n">
-        <v>1985.0</v>
-      </c>
-      <c r="E287" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B288" t="s">
-        <v>5</v>
-      </c>
-      <c r="C288" t="s">
-        <v>6</v>
-      </c>
-      <c r="D288" t="n">
-        <v>1986.0</v>
-      </c>
-      <c r="E288" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B289" t="s">
-        <v>5</v>
-      </c>
-      <c r="C289" t="s">
-        <v>6</v>
-      </c>
-      <c r="D289" t="n">
-        <v>1987.0</v>
-      </c>
-      <c r="E289" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B290" t="s">
-        <v>5</v>
-      </c>
-      <c r="C290" t="s">
-        <v>6</v>
-      </c>
-      <c r="D290" t="n">
-        <v>1988.0</v>
-      </c>
-      <c r="E290" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B291" t="s">
-        <v>5</v>
-      </c>
-      <c r="C291" t="s">
-        <v>6</v>
-      </c>
-      <c r="D291" t="n">
-        <v>1989.0</v>
-      </c>
-      <c r="E291" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B292" t="s">
-        <v>5</v>
-      </c>
-      <c r="C292" t="s">
-        <v>6</v>
-      </c>
-      <c r="D292" t="n">
-        <v>1990.0</v>
-      </c>
-      <c r="E292" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B293" t="s">
-        <v>5</v>
-      </c>
-      <c r="C293" t="s">
-        <v>6</v>
-      </c>
-      <c r="D293" t="n">
-        <v>1991.0</v>
-      </c>
-      <c r="E293" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B294" t="s">
-        <v>5</v>
-      </c>
-      <c r="C294" t="s">
-        <v>6</v>
-      </c>
-      <c r="D294" t="n">
-        <v>1992.0</v>
-      </c>
-      <c r="E294" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B295" t="s">
-        <v>5</v>
-      </c>
-      <c r="C295" t="s">
-        <v>6</v>
-      </c>
-      <c r="D295" t="n">
-        <v>1993.0</v>
-      </c>
-      <c r="E295" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B296" t="s">
-        <v>5</v>
-      </c>
-      <c r="C296" t="s">
-        <v>6</v>
-      </c>
-      <c r="D296" t="n">
-        <v>1994.0</v>
-      </c>
-      <c r="E296" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B297" t="s">
-        <v>5</v>
-      </c>
-      <c r="C297" t="s">
-        <v>6</v>
-      </c>
-      <c r="D297" t="n">
-        <v>1995.0</v>
-      </c>
-      <c r="E297" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B298" t="s">
-        <v>5</v>
-      </c>
-      <c r="C298" t="s">
-        <v>6</v>
-      </c>
-      <c r="D298" t="n">
-        <v>1996.0</v>
-      </c>
-      <c r="E298" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B299" t="s">
-        <v>5</v>
-      </c>
-      <c r="C299" t="s">
-        <v>6</v>
-      </c>
-      <c r="D299" t="n">
-        <v>1997.0</v>
-      </c>
-      <c r="E299" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B300" t="s">
-        <v>5</v>
-      </c>
-      <c r="C300" t="s">
-        <v>6</v>
-      </c>
-      <c r="D300" t="n">
-        <v>1998.0</v>
-      </c>
-      <c r="E300" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B301" t="s">
-        <v>5</v>
-      </c>
-      <c r="C301" t="s">
-        <v>6</v>
-      </c>
-      <c r="D301" t="n">
-        <v>1999.0</v>
-      </c>
-      <c r="E301" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B302" t="s">
-        <v>5</v>
-      </c>
-      <c r="C302" t="s">
-        <v>6</v>
-      </c>
-      <c r="D302" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="E302" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B303" t="s">
-        <v>5</v>
-      </c>
-      <c r="C303" t="s">
-        <v>6</v>
-      </c>
-      <c r="D303" t="n">
-        <v>2001.0</v>
-      </c>
-      <c r="E303" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B304" t="s">
-        <v>5</v>
-      </c>
-      <c r="C304" t="s">
-        <v>6</v>
-      </c>
-      <c r="D304" t="n">
-        <v>2002.0</v>
-      </c>
-      <c r="E304" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B305" t="s">
-        <v>5</v>
-      </c>
-      <c r="C305" t="s">
-        <v>6</v>
-      </c>
-      <c r="D305" t="n">
-        <v>2003.0</v>
-      </c>
-      <c r="E305" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B306" t="s">
-        <v>5</v>
-      </c>
-      <c r="C306" t="s">
-        <v>6</v>
-      </c>
-      <c r="D306" t="n">
-        <v>2004.0</v>
-      </c>
-      <c r="E306" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B307" t="s">
-        <v>5</v>
-      </c>
-      <c r="C307" t="s">
-        <v>6</v>
-      </c>
-      <c r="D307" t="n">
-        <v>2005.0</v>
-      </c>
-      <c r="E307" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B308" t="s">
-        <v>5</v>
-      </c>
-      <c r="C308" t="s">
-        <v>6</v>
-      </c>
-      <c r="D308" t="n">
-        <v>2006.0</v>
-      </c>
-      <c r="E308" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B309" t="s">
-        <v>5</v>
-      </c>
-      <c r="C309" t="s">
-        <v>6</v>
-      </c>
-      <c r="D309" t="n">
-        <v>2007.0</v>
-      </c>
-      <c r="E309" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B310" t="s">
-        <v>5</v>
-      </c>
-      <c r="C310" t="s">
-        <v>6</v>
-      </c>
-      <c r="D310" t="n">
-        <v>2008.0</v>
-      </c>
-      <c r="E310" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B311" t="s">
-        <v>5</v>
-      </c>
-      <c r="C311" t="s">
-        <v>6</v>
-      </c>
-      <c r="D311" t="n">
-        <v>2009.0</v>
-      </c>
-      <c r="E311" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B312" t="s">
-        <v>5</v>
-      </c>
-      <c r="C312" t="s">
-        <v>6</v>
-      </c>
-      <c r="D312" t="n">
-        <v>2010.0</v>
-      </c>
-      <c r="E312" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B313" t="s">
-        <v>5</v>
-      </c>
-      <c r="C313" t="s">
-        <v>6</v>
-      </c>
-      <c r="D313" t="n">
-        <v>2011.0</v>
-      </c>
-      <c r="E313" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>268.0</v>
-      </c>
-      <c r="B314" t="s">
-        <v>5</v>
-      </c>
-      <c r="C314" t="s">
-        <v>6</v>
-      </c>
-      <c r="D314" t="n">
-        <v>2012.0</v>
-      </c>
-      <c r="E314" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5845,50 +5201,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
